--- a/data/excel_files/연_경제성장률.xlsx
+++ b/data/excel_files/연_경제성장률.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baegseungho/excel_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baegseungho/건국대학교/2020-2/졸업프로젝트/데이터/최종정제/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D0E00D7-9775-E14E-AB1E-EAC93910C92C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4C90F8-0669-E843-B209-BAFB17458228}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4160" yWindow="2760" windowWidth="27900" windowHeight="16940" xr2:uid="{9A342AE3-1696-3A4C-8221-5C1C5E003B55}"/>
   </bookViews>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58EEF064-7CDC-E848-BB77-B125CFCCDC86}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B18"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -558,6 +558,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>43831</v>
+      </c>
+      <c r="B19">
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
